--- a/biology/Botanique/Echinopsis_pentlandii/Echinopsis_pentlandii.xlsx
+++ b/biology/Botanique/Echinopsis_pentlandii/Echinopsis_pentlandii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Echinopsis pentlandii  est une espèce de plantes à fleurs de la famille des Cactaceae et du genre Echinopsis. Il est cultivé comme plante ornementale[1].
+Echinopsis pentlandii  est une espèce de plantes à fleurs de la famille des Cactaceae et du genre Echinopsis. Il est cultivé comme plante ornementale.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est endémique du sud du Pérou et de la Bolivie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est endémique du sud du Pérou et de la Bolivie.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echinopsis pentlandii est une espèce de cactus vert moyen formant une touffe globulaire à ovoïde de 5 à 15 cm avec 15 côtes verruqueuses et des aréoles grises à aiguillons bruns (cinq à quinze radiaux parfois un central). Les floraisons sont diurnes, de mars à juin. les fleurs mesurent de 5 à 7 cm et sont jaunes, orange, rouges, roses ou pourpres avec une gorge blanche[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Echinopsis pentlandii est une espèce de cactus vert moyen formant une touffe globulaire à ovoïde de 5 à 15 cm avec 15 côtes verruqueuses et des aréoles grises à aiguillons bruns (cinq à quinze radiaux parfois un central). Les floraisons sont diurnes, de mars à juin. les fleurs mesurent de 5 à 7 cm et sont jaunes, orange, rouges, roses ou pourpres avec une gorge blanche.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des variétés selon IPNI :
 Echinopsis pentlandii var. albiflora Weidlich, Gartenflora 69 : 143 (1920).
@@ -613,7 +631,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinopsis pentlandii a pour synonymes :
 Echinocactus pentlandii Hook.
